--- a/Data Files/Dealers/searchDealer.xlsx
+++ b/Data Files/Dealers/searchDealer.xlsx
@@ -358,7 +358,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
